--- a/TestData/search.xlsx
+++ b/TestData/search.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>id</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>ahs</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>There are products that match the keyword</t>
+  </si>
+  <si>
+    <t>There are not products that match the keyword</t>
   </si>
 </sst>
 </file>
@@ -367,36 +376,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="44" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
